--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,36 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -94,154 +79,151 @@
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -599,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -718,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -918,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6818181818181818</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9444444444444444</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>427</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3214285714285715</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,633 +1218,513 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>235</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L15">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>48</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L16">
+        <v>67</v>
+      </c>
+      <c r="M16">
+        <v>67</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L17">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.78125</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L21">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>37</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="L22">
+        <v>86</v>
+      </c>
+      <c r="M22">
+        <v>86</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L23">
         <v>19</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>8</v>
       </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3133047210300429</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="L25">
+        <v>98</v>
+      </c>
+      <c r="M25">
+        <v>98</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L26">
         <v>73</v>
       </c>
-      <c r="D15">
+      <c r="M26">
         <v>73</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>160</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6625</v>
+      </c>
+      <c r="L27">
+        <v>106</v>
+      </c>
+      <c r="M27">
+        <v>106</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.62</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L29">
+        <v>56</v>
+      </c>
+      <c r="M29">
+        <v>56</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>38</v>
       </c>
-      <c r="K15">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L15">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>45</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.875</v>
-      </c>
-      <c r="L16">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>35</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L30">
+        <v>16</v>
+      </c>
+      <c r="M30">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>67</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L17">
-        <v>47</v>
-      </c>
-      <c r="M17">
-        <v>47</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.175</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L18">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>101</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L22">
-        <v>41</v>
-      </c>
-      <c r="M22">
-        <v>41</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L26">
-        <v>44</v>
-      </c>
-      <c r="M26">
-        <v>44</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="L27">
-        <v>54</v>
-      </c>
-      <c r="M27">
-        <v>54</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
-      <c r="M29">
-        <v>12</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32">
-        <v>0.68</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-      <c r="M32">
-        <v>17</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.68</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1874,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1900,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6538461538461539</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1926,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.625</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1952,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5789473684210527</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1978,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5757575757575758</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2004,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5666666666666667</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2030,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5446009389671361</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L40">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2056,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5428571428571428</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2082,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5208333333333334</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L42">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2108,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2134,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.4705882352941176</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2160,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.4651162790697674</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L45">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2186,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.4642857142857143</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2212,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.45</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="M47">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2238,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.4347826086956522</v>
+        <v>0.28125</v>
       </c>
       <c r="L48">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2264,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.4</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2290,85 +2152,59 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.3125</v>
+        <v>0.008874357776739842</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.2972972972972973</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K52">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="L52">
-        <v>9</v>
-      </c>
-      <c r="M52">
-        <v>9</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>29</v>
+        <v>3087</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,39 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,117 +82,117 @@
     <t>negative</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>save</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
@@ -199,22 +202,28 @@
     <t>important</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,31 +777,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L5">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6388888888888888</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6206896551724138</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9333333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5856164383561644</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -950,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -968,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9130434782608695</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1018,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1904761904761905</v>
+        <v>0.24</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1724806201550388</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8660714285714286</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1140939597315436</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8518518518518519</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.06746031746031746</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,45 +1227,69 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="B15">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>238</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8170731707317073</v>
+        <v>0.7578125</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,47 +1353,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L18">
+        <v>106</v>
+      </c>
+      <c r="M18">
+        <v>106</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>36</v>
-      </c>
-      <c r="K18">
-        <v>0.78125</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>100</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1372,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.7391304347826086</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1398,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7254901960784313</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1424,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7166666666666667</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L22">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1450,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1476,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.70625</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1502,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6901408450704225</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L25">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M25">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1528,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6886792452830188</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1554,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6625</v>
+        <v>0.62</v>
       </c>
       <c r="L27">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1580,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1606,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5957446808510638</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1632,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1658,12 +1691,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>0.5588235294117647</v>
@@ -1689,16 +1722,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5319148936170213</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1715,16 +1748,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5238095238095238</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1736,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5143603133159269</v>
+        <v>0.5117493472584856</v>
       </c>
       <c r="L34">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M34">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1762,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4831460674157304</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1788,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4791666666666667</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1814,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4642857142857143</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1840,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.45</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1866,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4470588235294118</v>
+        <v>0.45</v>
       </c>
       <c r="L39">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1892,12 +1925,12 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>188</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
         <v>0.4242424242424243</v>
@@ -1923,16 +1956,16 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4135593220338983</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L41">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M41">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1944,12 +1977,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
         <v>0.3777777777777778</v>
@@ -1975,16 +2008,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3714285714285714</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1996,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3692307692307693</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2022,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.358974358974359</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2048,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.3561643835616438</v>
+        <v>0.328125</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2074,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.3389121338912134</v>
+        <v>0.325</v>
       </c>
       <c r="L47">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2100,21 +2133,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.28125</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2126,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.0144284128745838</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2152,59 +2185,111 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>888</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.008874357776739842</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2122</v>
+        <v>879</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.005797101449275362</v>
+        <v>0.01664816870144284</v>
       </c>
       <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52">
+        <v>0.006532897806812879</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53">
+        <v>0.005473277527366388</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
         <v>18</v>
       </c>
-      <c r="M51">
-        <v>20</v>
-      </c>
-      <c r="N51">
-        <v>0.9</v>
-      </c>
-      <c r="O51">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>3087</v>
+      <c r="N53">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3089</v>
       </c>
     </row>
   </sheetData>
